--- a/data/panelapp/au/Retinal Disorders Superpanel.xlsx
+++ b/data/panelapp/au/Retinal Disorders Superpanel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E473"/>
+  <dimension ref="A1:F473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212283</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212294</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212298</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212301</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212304</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212306</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212309</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212312</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212315</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212317</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212320</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212323</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212325</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212328</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212331</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212333</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212336</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212339</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212342</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212344</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212347</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212349</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212352</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212355</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212358</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212361</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212364</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212366</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212369</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212372</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212375</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212377</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212380</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212383</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212386</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212388</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212391</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212394</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212396</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212399</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212402</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212405</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212407</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212410</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212413</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212415</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212418</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212421</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212423</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212426</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212429</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212432</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212435</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212438</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212441</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212443</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212446</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212449</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212451</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212454</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212456</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212459</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212462</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212464</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212468</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212471</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212474</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212476</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2179,6 +2524,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212479</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2204,6 +2554,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212482</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2229,6 +2584,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212484</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2254,6 +2614,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212487</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2279,6 +2644,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212489</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2304,6 +2674,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212492</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2329,6 +2704,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212495</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,6 +2734,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212497</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2379,6 +2764,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212502</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2404,6 +2794,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212505</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2429,6 +2824,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212508</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2454,6 +2854,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212511</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2479,6 +2884,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212514</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2504,6 +2914,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212517</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2529,6 +2944,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212519</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2554,6 +2974,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212522</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2579,6 +3004,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212524</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2604,6 +3034,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212527</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2629,6 +3064,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212530</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2654,6 +3094,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212532</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2679,6 +3124,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212535</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2704,6 +3154,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212538</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2729,6 +3184,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212540</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2754,6 +3214,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212543</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2779,6 +3244,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212547</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2804,6 +3274,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212550</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2829,6 +3304,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212552</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2854,6 +3334,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212555</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2879,6 +3364,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212558</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2904,6 +3394,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212560</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2929,6 +3424,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212563</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2954,6 +3454,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212566</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2979,6 +3484,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212568</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3004,6 +3514,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212571</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3029,6 +3544,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212573</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3054,6 +3574,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212576</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3079,6 +3604,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212579</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3104,6 +3634,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212581</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3129,6 +3664,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212584</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3154,6 +3694,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212586</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3179,6 +3724,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212591</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3204,6 +3754,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212594</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3229,6 +3784,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212597</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3254,6 +3814,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212599</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3279,6 +3844,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212602</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3304,6 +3874,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212605</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3329,6 +3904,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212607</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3354,6 +3934,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212610</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3379,6 +3964,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212612</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3404,6 +3994,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212615</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3429,6 +4024,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212618</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3454,6 +4054,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212621</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3479,6 +4084,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212623</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3504,6 +4114,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212626</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3529,6 +4144,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212628</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3554,6 +4174,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212631</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3579,6 +4204,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212634</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3604,6 +4234,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212636</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3629,6 +4264,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212639</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3654,6 +4294,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212642</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3679,6 +4324,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212646</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3704,6 +4354,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212649</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3729,6 +4384,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212652</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3754,6 +4414,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212655</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3779,6 +4444,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212657</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3804,6 +4474,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212660</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3829,6 +4504,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212663</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3854,6 +4534,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212665</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3879,6 +4564,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212677</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3904,6 +4594,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212680</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3929,6 +4624,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212683</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3954,6 +4654,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212686</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3979,6 +4684,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212688</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4004,6 +4714,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212691</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4029,6 +4744,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212694</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4054,6 +4774,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212696</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4079,6 +4804,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212699</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4104,6 +4834,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212702</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4129,6 +4864,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212704</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4154,6 +4894,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212707</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4179,6 +4924,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212710</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4204,6 +4954,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212713</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4229,6 +4984,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212716</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4254,6 +5014,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212718</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4279,6 +5044,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212721</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4304,6 +5074,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212724</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4329,6 +5104,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212727</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4354,6 +5134,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212729</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4379,6 +5164,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212732</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4404,6 +5194,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212735</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4429,6 +5224,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212737</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4454,6 +5254,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212740</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4479,6 +5284,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212743</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4504,6 +5314,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212746</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4529,6 +5344,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212748</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4554,6 +5374,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212751</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4579,6 +5404,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212754</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4604,6 +5434,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212756</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4629,6 +5464,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212759</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4654,6 +5494,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212762</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4679,6 +5524,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212764</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4704,6 +5554,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212767</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4729,6 +5584,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212769</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4754,6 +5614,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212772</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4779,6 +5644,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212777</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4804,6 +5674,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212780</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4829,6 +5704,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212782</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4854,6 +5734,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212785</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4879,6 +5764,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212788</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4904,6 +5794,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212790</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4929,6 +5824,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212793</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4954,6 +5854,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212796</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4979,6 +5884,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212798</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5004,6 +5914,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212801</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5029,6 +5944,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212804</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5054,6 +5974,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212807</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -5079,6 +6004,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212810</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -5104,6 +6034,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212812</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -5129,6 +6064,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212815</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -5154,6 +6094,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212818</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -5179,6 +6124,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212820</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -5204,6 +6154,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212823</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -5229,6 +6184,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212826</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -5254,6 +6214,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212828</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -5279,6 +6244,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212831</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -5304,6 +6274,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212834</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -5329,6 +6304,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212837</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -5354,6 +6334,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212839</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -5379,6 +6364,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212842</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5404,6 +6394,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212845</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5429,6 +6424,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212847</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5454,6 +6454,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212850</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5479,6 +6484,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212853</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5504,6 +6514,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212856</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5529,6 +6544,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212858</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5554,6 +6574,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212861</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5579,6 +6604,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212864</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5604,6 +6634,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212867</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5629,6 +6664,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212869</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5654,6 +6694,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212872</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5679,6 +6724,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212875</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5704,6 +6754,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212878</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5729,6 +6784,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212880</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5754,6 +6814,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212883</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5779,6 +6844,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212886</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5804,6 +6874,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212889</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5829,6 +6904,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212891</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5854,6 +6934,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212894</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5879,6 +6964,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212897</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5904,6 +6994,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212899</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5929,6 +7024,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212902</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5954,6 +7054,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212904</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5979,6 +7084,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212907</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6004,6 +7114,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212910</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6029,6 +7144,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212912</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -6054,6 +7174,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212915</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -6079,6 +7204,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212918</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -6104,6 +7234,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212920</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -6129,6 +7264,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212923</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6154,6 +7294,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212926</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -6179,6 +7324,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212928</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6204,6 +7354,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212931</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6229,6 +7384,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212934</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6254,6 +7414,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212936</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -6279,6 +7444,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212940</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -6304,6 +7474,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212943</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -6329,6 +7504,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212946</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -6354,6 +7534,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212949</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -6379,6 +7564,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212952</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -6404,6 +7594,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212954</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -6429,6 +7624,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212957</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -6454,6 +7654,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212960</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -6479,6 +7684,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212962</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -6504,6 +7714,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212965</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -6529,6 +7744,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212968</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -6554,6 +7774,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212970</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -6579,6 +7804,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212973</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -6604,6 +7834,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212975</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -6629,6 +7864,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212978</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -6654,6 +7894,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212981</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -6679,6 +7924,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212983</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -6704,6 +7954,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212986</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -6729,6 +7984,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212989</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -6754,6 +8014,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212991</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -6779,6 +8044,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212994</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -6804,6 +8074,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.212997</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -6829,6 +8104,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213000</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -6854,6 +8134,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213002</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -6879,6 +8164,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213006</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -6904,6 +8194,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213008</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -6929,6 +8224,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213011</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -6954,6 +8254,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213013</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -6979,6 +8284,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213016</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -7004,6 +8314,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213019</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -7029,6 +8344,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213022</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -7054,6 +8374,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213024</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -7079,6 +8404,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213027</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -7104,6 +8434,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213029</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -7129,6 +8464,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213032</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -7154,6 +8494,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213035</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -7179,6 +8524,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213037</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -7204,6 +8554,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213040</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -7229,6 +8584,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213043</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -7254,6 +8614,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213046</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -7279,6 +8644,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213048</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -7304,6 +8674,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213051</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -7329,6 +8704,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213054</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -7354,6 +8734,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213056</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -7379,6 +8764,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213059</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -7404,6 +8794,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213062</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -7429,6 +8824,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213064</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -7454,6 +8854,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213067</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -7479,6 +8884,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213069</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -7504,6 +8914,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213072</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -7529,6 +8944,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213075</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -7554,6 +8974,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213078</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -7579,6 +9004,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213081</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -7604,6 +9034,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213084</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -7629,6 +9064,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213086</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -7654,6 +9094,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213089</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -7679,6 +9124,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213092</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -7704,6 +9154,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213094</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -7729,6 +9184,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213097</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -7754,6 +9214,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213100</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -7779,6 +9244,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213102</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -7804,6 +9274,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213105</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -7829,6 +9304,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213108</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -7854,6 +9334,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213110</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -7879,6 +9364,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213113</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -7904,6 +9394,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213116</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -7929,6 +9424,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213118</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -7954,6 +9454,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213121</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -7979,6 +9484,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213123</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -8004,6 +9514,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213126</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -8029,6 +9544,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213129</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -8054,6 +9574,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213132</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -8079,6 +9604,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213134</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -8104,6 +9634,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213137</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -8129,6 +9664,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213139</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -8154,6 +9694,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213142</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -8179,6 +9724,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213146</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -8204,6 +9754,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213150</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -8229,6 +9784,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213153</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -8254,6 +9814,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213155</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -8279,6 +9844,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213158</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -8304,6 +9874,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213161</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -8329,6 +9904,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213164</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -8354,6 +9934,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213166</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -8379,6 +9964,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213169</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -8404,6 +9994,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213172</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -8429,6 +10024,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213174</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -8454,6 +10054,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213177</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -8479,6 +10084,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213180</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -8504,6 +10114,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213182</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -8529,6 +10144,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213185</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -8554,6 +10174,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213187</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -8579,6 +10204,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213190</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -8604,6 +10234,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213192</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -8629,6 +10264,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213195</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -8654,6 +10294,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213198</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -8679,6 +10324,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213200</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -8704,6 +10354,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213203</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -8729,6 +10384,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213206</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -8754,6 +10414,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213209</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -8779,6 +10444,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213212</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -8804,6 +10474,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213215</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -8829,6 +10504,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213217</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -8854,6 +10534,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213220</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -8879,6 +10564,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213223</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -8904,6 +10594,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213225</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -8929,6 +10624,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213228</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -8954,6 +10654,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213231</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -8979,6 +10684,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213233</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -9004,6 +10714,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213236</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -9029,6 +10744,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213239</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -9054,6 +10774,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213242</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -9079,6 +10804,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213244</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -9104,6 +10834,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213247</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -9129,6 +10864,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213250</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -9154,6 +10894,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213253</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -9179,6 +10924,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213256</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -9204,6 +10954,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213259</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -9229,6 +10984,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213261</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -9254,6 +11014,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213264</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -9279,6 +11044,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213268</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -9304,6 +11074,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213271</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -9329,6 +11104,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213274</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -9354,6 +11134,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213276</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -9379,6 +11164,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213279</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -9404,6 +11194,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213282</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -9429,6 +11224,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213284</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -9454,6 +11254,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213287</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -9479,6 +11284,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213290</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -9504,6 +11314,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213292</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -9529,6 +11344,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213295</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -9554,6 +11374,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213298</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -9579,6 +11404,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213300</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -9604,6 +11434,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213303</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -9629,6 +11464,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213306</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -9654,6 +11494,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213309</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -9679,6 +11524,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213311</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -9704,6 +11554,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213314</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -9729,6 +11584,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213317</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -9754,6 +11614,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213319</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -9779,6 +11644,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213322</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -9804,6 +11674,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213325</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -9829,6 +11704,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213327</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -9854,6 +11734,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213330</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -9879,6 +11764,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213333</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -9904,6 +11794,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213335</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -9929,6 +11824,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213338</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -9954,6 +11854,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213341</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -9979,6 +11884,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213343</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -10004,6 +11914,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213346</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -10029,6 +11944,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213349</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -10054,6 +11974,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213352</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -10079,6 +12004,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213354</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -10104,6 +12034,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213357</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -10129,6 +12064,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213360</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -10154,6 +12094,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213363</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -10179,6 +12124,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213365</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -10204,6 +12154,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213368</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -10229,6 +12184,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213371</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -10254,6 +12214,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213373</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -10279,6 +12244,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213376</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -10304,6 +12274,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213379</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -10329,6 +12304,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213381</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -10354,6 +12334,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213384</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -10379,6 +12364,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213387</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -10404,6 +12394,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213389</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -10429,6 +12424,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213392</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -10454,6 +12454,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213395</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -10479,6 +12484,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213399</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -10504,6 +12514,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213402</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -10529,6 +12544,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213405</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -10554,6 +12574,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213408</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -10579,6 +12604,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213411</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -10604,6 +12634,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213413</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -10629,6 +12664,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213416</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -10654,6 +12694,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213419</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -10679,6 +12724,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213421</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -10704,6 +12754,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213424</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -10729,6 +12784,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213427</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -10754,6 +12814,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213429</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -10779,6 +12844,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213432</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -10804,6 +12874,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213435</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -10829,6 +12904,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213437</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -10854,6 +12934,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213440</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -10879,6 +12964,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213443</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -10904,6 +12994,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213446</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -10929,6 +13024,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213448</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -10954,6 +13054,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213451</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -10979,6 +13084,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213454</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -11004,6 +13114,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213457</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -11029,6 +13144,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213459</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -11054,6 +13174,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213462</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -11079,6 +13204,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213464</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -11104,6 +13234,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213467</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -11129,6 +13264,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213470</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -11154,6 +13294,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213472</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -11179,6 +13324,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213475</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -11204,6 +13354,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213478</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -11229,6 +13384,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213480</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -11254,6 +13414,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213483</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -11279,6 +13444,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213486</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -11304,6 +13474,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213488</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -11329,6 +13504,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213491</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -11354,6 +13534,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213494</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -11379,6 +13564,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213496</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -11404,6 +13594,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213499</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -11429,6 +13624,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213501</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -11454,6 +13654,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213504</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -11479,6 +13684,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213507</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -11504,6 +13714,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213510</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -11529,6 +13744,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213512</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -11554,6 +13774,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213515</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -11579,6 +13804,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213517</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -11604,6 +13834,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213520</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -11629,6 +13864,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213523</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -11654,6 +13894,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213525</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -11679,6 +13924,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213528</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -11704,6 +13954,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213531</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -11729,6 +13984,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213533</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -11754,6 +14014,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213536</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -11779,6 +14044,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213539</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -11804,6 +14074,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213542</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -11829,6 +14104,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213545</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -11854,6 +14134,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213548</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -11879,6 +14164,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213552</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -11904,6 +14194,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213555</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -11929,6 +14224,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213558</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -11954,6 +14254,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213561</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -11979,6 +14284,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213563</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -12004,6 +14314,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213566</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -12029,6 +14344,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213569</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -12054,6 +14374,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213572</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -12079,6 +14404,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213574</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -12104,6 +14434,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213577</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -12129,6 +14464,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213580</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -12154,6 +14494,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213583</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -12179,6 +14524,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213586</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -12204,6 +14554,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213589</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -12229,6 +14584,11 @@
           <t>Retinal Disorders Superpanel</t>
         </is>
       </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213591</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -12252,6 +14612,11 @@
       <c r="E473" t="inlineStr">
         <is>
           <t>Retinal Disorders Superpanel</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:38.213601</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/au/Retinal Disorders Superpanel.xlsx
+++ b/data/panelapp/au/Retinal Disorders Superpanel.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212283</t>
+          <t>2021-10-05 14:35:38.414418</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212294</t>
+          <t>2021-10-05 14:35:38.414426</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212298</t>
+          <t>2021-10-05 14:35:38.414429</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212301</t>
+          <t>2021-10-05 14:35:38.414432</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212304</t>
+          <t>2021-10-05 14:35:38.414434</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212306</t>
+          <t>2021-10-05 14:35:38.414437</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212309</t>
+          <t>2021-10-05 14:35:38.414439</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212312</t>
+          <t>2021-10-05 14:35:38.414442</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212315</t>
+          <t>2021-10-05 14:35:38.414444</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212317</t>
+          <t>2021-10-05 14:35:38.414447</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212320</t>
+          <t>2021-10-05 14:35:38.414449</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212323</t>
+          <t>2021-10-05 14:35:38.414452</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212325</t>
+          <t>2021-10-05 14:35:38.414454</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212328</t>
+          <t>2021-10-05 14:35:38.414456</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212331</t>
+          <t>2021-10-05 14:35:38.414459</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212333</t>
+          <t>2021-10-05 14:35:38.414461</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212336</t>
+          <t>2021-10-05 14:35:38.414464</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212339</t>
+          <t>2021-10-05 14:35:38.414466</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212342</t>
+          <t>2021-10-05 14:35:38.414469</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212344</t>
+          <t>2021-10-05 14:35:38.414471</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212347</t>
+          <t>2021-10-05 14:35:38.414474</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212349</t>
+          <t>2021-10-05 14:35:38.414476</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212352</t>
+          <t>2021-10-05 14:35:38.414479</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212355</t>
+          <t>2021-10-05 14:35:38.414481</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212358</t>
+          <t>2021-10-05 14:35:38.414484</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212361</t>
+          <t>2021-10-05 14:35:38.414486</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212364</t>
+          <t>2021-10-05 14:35:38.414489</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212366</t>
+          <t>2021-10-05 14:35:38.414491</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212369</t>
+          <t>2021-10-05 14:35:38.414493</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212372</t>
+          <t>2021-10-05 14:35:38.414496</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212375</t>
+          <t>2021-10-05 14:35:38.414498</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212377</t>
+          <t>2021-10-05 14:35:38.414501</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212380</t>
+          <t>2021-10-05 14:35:38.414504</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212383</t>
+          <t>2021-10-05 14:35:38.414506</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212386</t>
+          <t>2021-10-05 14:35:38.414508</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212388</t>
+          <t>2021-10-05 14:35:38.414511</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212391</t>
+          <t>2021-10-05 14:35:38.414513</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212394</t>
+          <t>2021-10-05 14:35:38.414516</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212396</t>
+          <t>2021-10-05 14:35:38.414518</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212399</t>
+          <t>2021-10-05 14:35:38.414521</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212402</t>
+          <t>2021-10-05 14:35:38.414524</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212405</t>
+          <t>2021-10-05 14:35:38.414526</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212407</t>
+          <t>2021-10-05 14:35:38.414529</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212410</t>
+          <t>2021-10-05 14:35:38.414531</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212413</t>
+          <t>2021-10-05 14:35:38.414533</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212415</t>
+          <t>2021-10-05 14:35:38.414536</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212418</t>
+          <t>2021-10-05 14:35:38.414538</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212421</t>
+          <t>2021-10-05 14:35:38.414541</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212423</t>
+          <t>2021-10-05 14:35:38.414543</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212426</t>
+          <t>2021-10-05 14:35:38.414546</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212429</t>
+          <t>2021-10-05 14:35:38.414549</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212432</t>
+          <t>2021-10-05 14:35:38.414551</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212435</t>
+          <t>2021-10-05 14:35:38.414554</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212438</t>
+          <t>2021-10-05 14:35:38.414556</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212441</t>
+          <t>2021-10-05 14:35:38.414559</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212443</t>
+          <t>2021-10-05 14:35:38.414561</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212446</t>
+          <t>2021-10-05 14:35:38.414563</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212449</t>
+          <t>2021-10-05 14:35:38.414566</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212451</t>
+          <t>2021-10-05 14:35:38.414568</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212454</t>
+          <t>2021-10-05 14:35:38.414571</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212456</t>
+          <t>2021-10-05 14:35:38.414573</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212459</t>
+          <t>2021-10-05 14:35:38.414575</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212462</t>
+          <t>2021-10-05 14:35:38.414578</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212464</t>
+          <t>2021-10-05 14:35:38.414580</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212468</t>
+          <t>2021-10-05 14:35:38.414584</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212471</t>
+          <t>2021-10-05 14:35:38.414587</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212474</t>
+          <t>2021-10-05 14:35:38.414589</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212476</t>
+          <t>2021-10-05 14:35:38.414592</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212479</t>
+          <t>2021-10-05 14:35:38.414594</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212482</t>
+          <t>2021-10-05 14:35:38.414596</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212484</t>
+          <t>2021-10-05 14:35:38.414599</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212487</t>
+          <t>2021-10-05 14:35:38.414601</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212489</t>
+          <t>2021-10-05 14:35:38.414604</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212492</t>
+          <t>2021-10-05 14:35:38.414606</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212495</t>
+          <t>2021-10-05 14:35:38.414609</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212497</t>
+          <t>2021-10-05 14:35:38.414611</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212502</t>
+          <t>2021-10-05 14:35:38.414616</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212505</t>
+          <t>2021-10-05 14:35:38.414619</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212508</t>
+          <t>2021-10-05 14:35:38.414621</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212511</t>
+          <t>2021-10-05 14:35:38.414623</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212514</t>
+          <t>2021-10-05 14:35:38.414626</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212517</t>
+          <t>2021-10-05 14:35:38.414628</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212519</t>
+          <t>2021-10-05 14:35:38.414631</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212522</t>
+          <t>2021-10-05 14:35:38.414633</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212524</t>
+          <t>2021-10-05 14:35:38.414635</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212527</t>
+          <t>2021-10-05 14:35:38.414638</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212530</t>
+          <t>2021-10-05 14:35:38.414640</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212532</t>
+          <t>2021-10-05 14:35:38.414643</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212535</t>
+          <t>2021-10-05 14:35:38.414645</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212538</t>
+          <t>2021-10-05 14:35:38.414648</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212540</t>
+          <t>2021-10-05 14:35:38.414650</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212543</t>
+          <t>2021-10-05 14:35:38.414653</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212547</t>
+          <t>2021-10-05 14:35:38.414656</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212550</t>
+          <t>2021-10-05 14:35:38.414659</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212552</t>
+          <t>2021-10-05 14:35:38.414661</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212555</t>
+          <t>2021-10-05 14:35:38.414664</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212558</t>
+          <t>2021-10-05 14:35:38.414666</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212560</t>
+          <t>2021-10-05 14:35:38.414669</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212563</t>
+          <t>2021-10-05 14:35:38.414671</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212566</t>
+          <t>2021-10-05 14:35:38.414674</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212568</t>
+          <t>2021-10-05 14:35:38.414676</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212571</t>
+          <t>2021-10-05 14:35:38.414679</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212573</t>
+          <t>2021-10-05 14:35:38.414681</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212576</t>
+          <t>2021-10-05 14:35:38.414683</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212579</t>
+          <t>2021-10-05 14:35:38.414686</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212581</t>
+          <t>2021-10-05 14:35:38.414688</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212584</t>
+          <t>2021-10-05 14:35:38.414691</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212586</t>
+          <t>2021-10-05 14:35:38.414693</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212591</t>
+          <t>2021-10-05 14:35:38.414697</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212594</t>
+          <t>2021-10-05 14:35:38.414701</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212597</t>
+          <t>2021-10-05 14:35:38.414703</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212599</t>
+          <t>2021-10-05 14:35:38.414706</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212602</t>
+          <t>2021-10-05 14:35:38.414708</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212605</t>
+          <t>2021-10-05 14:35:38.414710</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212607</t>
+          <t>2021-10-05 14:35:38.414713</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212610</t>
+          <t>2021-10-05 14:35:38.414715</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212612</t>
+          <t>2021-10-05 14:35:38.414718</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212615</t>
+          <t>2021-10-05 14:35:38.414720</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212618</t>
+          <t>2021-10-05 14:35:38.414722</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212621</t>
+          <t>2021-10-05 14:35:38.414725</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212623</t>
+          <t>2021-10-05 14:35:38.414727</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212626</t>
+          <t>2021-10-05 14:35:38.414729</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212628</t>
+          <t>2021-10-05 14:35:38.414732</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212631</t>
+          <t>2021-10-05 14:35:38.414734</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212634</t>
+          <t>2021-10-05 14:35:38.414737</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212636</t>
+          <t>2021-10-05 14:35:38.414739</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212639</t>
+          <t>2021-10-05 14:35:38.414742</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212642</t>
+          <t>2021-10-05 14:35:38.414744</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212646</t>
+          <t>2021-10-05 14:35:38.414748</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212649</t>
+          <t>2021-10-05 14:35:38.414751</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212652</t>
+          <t>2021-10-05 14:35:38.414753</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212655</t>
+          <t>2021-10-05 14:35:38.414756</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212657</t>
+          <t>2021-10-05 14:35:38.414758</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212660</t>
+          <t>2021-10-05 14:35:38.414760</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212663</t>
+          <t>2021-10-05 14:35:38.414763</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212665</t>
+          <t>2021-10-05 14:35:38.414765</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212677</t>
+          <t>2021-10-05 14:35:38.414768</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212680</t>
+          <t>2021-10-05 14:35:38.414770</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212683</t>
+          <t>2021-10-05 14:35:38.414773</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212686</t>
+          <t>2021-10-05 14:35:38.414775</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212688</t>
+          <t>2021-10-05 14:35:38.414778</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212691</t>
+          <t>2021-10-05 14:35:38.414780</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212694</t>
+          <t>2021-10-05 14:35:38.414782</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212696</t>
+          <t>2021-10-05 14:35:38.414785</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212699</t>
+          <t>2021-10-05 14:35:38.414787</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212702</t>
+          <t>2021-10-05 14:35:38.414790</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212704</t>
+          <t>2021-10-05 14:35:38.414792</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212707</t>
+          <t>2021-10-05 14:35:38.414794</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212710</t>
+          <t>2021-10-05 14:35:38.414797</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212713</t>
+          <t>2021-10-05 14:35:38.414800</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212716</t>
+          <t>2021-10-05 14:35:38.414802</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212718</t>
+          <t>2021-10-05 14:35:38.414805</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212721</t>
+          <t>2021-10-05 14:35:38.414807</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212724</t>
+          <t>2021-10-05 14:35:38.414809</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212727</t>
+          <t>2021-10-05 14:35:38.414812</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212729</t>
+          <t>2021-10-05 14:35:38.414814</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212732</t>
+          <t>2021-10-05 14:35:38.414817</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212735</t>
+          <t>2021-10-05 14:35:38.414819</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212737</t>
+          <t>2021-10-05 14:35:38.414822</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212740</t>
+          <t>2021-10-05 14:35:38.414824</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212743</t>
+          <t>2021-10-05 14:35:38.414826</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212746</t>
+          <t>2021-10-05 14:35:38.414829</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212748</t>
+          <t>2021-10-05 14:35:38.414831</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212751</t>
+          <t>2021-10-05 14:35:38.414834</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212754</t>
+          <t>2021-10-05 14:35:38.414836</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212756</t>
+          <t>2021-10-05 14:35:38.414838</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212759</t>
+          <t>2021-10-05 14:35:38.414841</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212762</t>
+          <t>2021-10-05 14:35:38.414843</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212764</t>
+          <t>2021-10-05 14:35:38.414845</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212767</t>
+          <t>2021-10-05 14:35:38.414848</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212769</t>
+          <t>2021-10-05 14:35:38.414850</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212772</t>
+          <t>2021-10-05 14:35:38.414853</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212777</t>
+          <t>2021-10-05 14:35:38.414857</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212780</t>
+          <t>2021-10-05 14:35:38.414859</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212782</t>
+          <t>2021-10-05 14:35:38.414862</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212785</t>
+          <t>2021-10-05 14:35:38.414864</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212788</t>
+          <t>2021-10-05 14:35:38.414867</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212790</t>
+          <t>2021-10-05 14:35:38.414869</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212793</t>
+          <t>2021-10-05 14:35:38.414872</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212796</t>
+          <t>2021-10-05 14:35:38.414874</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212798</t>
+          <t>2021-10-05 14:35:38.414876</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212801</t>
+          <t>2021-10-05 14:35:38.414879</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212804</t>
+          <t>2021-10-05 14:35:38.414881</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212807</t>
+          <t>2021-10-05 14:35:38.414884</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212810</t>
+          <t>2021-10-05 14:35:38.414886</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212812</t>
+          <t>2021-10-05 14:35:38.414889</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212815</t>
+          <t>2021-10-05 14:35:38.414891</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212818</t>
+          <t>2021-10-05 14:35:38.414893</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212820</t>
+          <t>2021-10-05 14:35:38.414896</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212823</t>
+          <t>2021-10-05 14:35:38.414898</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212826</t>
+          <t>2021-10-05 14:35:38.414900</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212828</t>
+          <t>2021-10-05 14:35:38.414903</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212831</t>
+          <t>2021-10-05 14:35:38.414906</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212834</t>
+          <t>2021-10-05 14:35:38.414908</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212837</t>
+          <t>2021-10-05 14:35:38.414910</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212839</t>
+          <t>2021-10-05 14:35:38.414913</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212842</t>
+          <t>2021-10-05 14:35:38.414915</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212845</t>
+          <t>2021-10-05 14:35:38.414918</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212847</t>
+          <t>2021-10-05 14:35:38.414920</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212850</t>
+          <t>2021-10-05 14:35:38.414922</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212853</t>
+          <t>2021-10-05 14:35:38.414925</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212856</t>
+          <t>2021-10-05 14:35:38.414928</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212858</t>
+          <t>2021-10-05 14:35:38.414930</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212861</t>
+          <t>2021-10-05 14:35:38.414933</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212864</t>
+          <t>2021-10-05 14:35:38.414935</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212867</t>
+          <t>2021-10-05 14:35:38.414937</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212869</t>
+          <t>2021-10-05 14:35:38.414940</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212872</t>
+          <t>2021-10-05 14:35:38.414942</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212875</t>
+          <t>2021-10-05 14:35:38.414945</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212878</t>
+          <t>2021-10-05 14:35:38.414947</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212880</t>
+          <t>2021-10-05 14:35:38.414949</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212883</t>
+          <t>2021-10-05 14:35:38.414952</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212886</t>
+          <t>2021-10-05 14:35:38.414954</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212889</t>
+          <t>2021-10-05 14:35:38.414956</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212891</t>
+          <t>2021-10-05 14:35:38.414959</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212894</t>
+          <t>2021-10-05 14:35:38.414961</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212897</t>
+          <t>2021-10-05 14:35:38.414964</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212899</t>
+          <t>2021-10-05 14:35:38.414966</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212902</t>
+          <t>2021-10-05 14:35:38.414968</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212904</t>
+          <t>2021-10-05 14:35:38.414971</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212907</t>
+          <t>2021-10-05 14:35:38.414973</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212910</t>
+          <t>2021-10-05 14:35:38.414975</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212912</t>
+          <t>2021-10-05 14:35:38.414978</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212915</t>
+          <t>2021-10-05 14:35:38.414980</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212918</t>
+          <t>2021-10-05 14:35:38.414983</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212920</t>
+          <t>2021-10-05 14:35:38.414985</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212923</t>
+          <t>2021-10-05 14:35:38.414987</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212926</t>
+          <t>2021-10-05 14:35:38.414990</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212928</t>
+          <t>2021-10-05 14:35:38.414992</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212931</t>
+          <t>2021-10-05 14:35:38.414995</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212934</t>
+          <t>2021-10-05 14:35:38.414997</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212936</t>
+          <t>2021-10-05 14:35:38.414999</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212940</t>
+          <t>2021-10-05 14:35:38.415003</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212943</t>
+          <t>2021-10-05 14:35:38.415006</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212946</t>
+          <t>2021-10-05 14:35:38.415008</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212949</t>
+          <t>2021-10-05 14:35:38.415011</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212952</t>
+          <t>2021-10-05 14:35:38.415013</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212954</t>
+          <t>2021-10-05 14:35:38.415016</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212957</t>
+          <t>2021-10-05 14:35:38.415018</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212960</t>
+          <t>2021-10-05 14:35:38.415021</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7687,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212962</t>
+          <t>2021-10-05 14:35:38.415023</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212965</t>
+          <t>2021-10-05 14:35:38.415026</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212968</t>
+          <t>2021-10-05 14:35:38.415028</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7777,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212970</t>
+          <t>2021-10-05 14:35:38.415030</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7807,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212973</t>
+          <t>2021-10-05 14:35:38.415033</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7837,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212975</t>
+          <t>2021-10-05 14:35:38.415035</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7867,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212978</t>
+          <t>2021-10-05 14:35:38.415037</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212981</t>
+          <t>2021-10-05 14:35:38.415040</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7927,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212983</t>
+          <t>2021-10-05 14:35:38.415042</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212986</t>
+          <t>2021-10-05 14:35:38.415045</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212989</t>
+          <t>2021-10-05 14:35:38.415047</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212991</t>
+          <t>2021-10-05 14:35:38.415049</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212994</t>
+          <t>2021-10-05 14:35:38.415052</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8077,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.212997</t>
+          <t>2021-10-05 14:35:38.415054</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8107,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213000</t>
+          <t>2021-10-05 14:35:38.415057</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213002</t>
+          <t>2021-10-05 14:35:38.415059</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213006</t>
+          <t>2021-10-05 14:35:38.415061</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213008</t>
+          <t>2021-10-05 14:35:38.415064</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8227,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213011</t>
+          <t>2021-10-05 14:35:38.415066</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8257,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213013</t>
+          <t>2021-10-05 14:35:38.415068</t>
         </is>
       </c>
     </row>
@@ -8286,7 +8287,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213016</t>
+          <t>2021-10-05 14:35:38.415071</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8317,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213019</t>
+          <t>2021-10-05 14:35:38.415073</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8347,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213022</t>
+          <t>2021-10-05 14:35:38.415076</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8377,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213024</t>
+          <t>2021-10-05 14:35:38.415078</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8407,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213027</t>
+          <t>2021-10-05 14:35:38.415081</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8437,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213029</t>
+          <t>2021-10-05 14:35:38.415083</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8467,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213032</t>
+          <t>2021-10-05 14:35:38.415086</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8497,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213035</t>
+          <t>2021-10-05 14:35:38.415088</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8527,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213037</t>
+          <t>2021-10-05 14:35:38.415091</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8557,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213040</t>
+          <t>2021-10-05 14:35:38.415094</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8587,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213043</t>
+          <t>2021-10-05 14:35:38.415096</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8617,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213046</t>
+          <t>2021-10-05 14:35:38.415098</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8647,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213048</t>
+          <t>2021-10-05 14:35:38.415101</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8677,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213051</t>
+          <t>2021-10-05 14:35:38.415103</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8707,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213054</t>
+          <t>2021-10-05 14:35:38.415105</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8737,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213056</t>
+          <t>2021-10-05 14:35:38.415108</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8767,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213059</t>
+          <t>2021-10-05 14:35:38.415110</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8797,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213062</t>
+          <t>2021-10-05 14:35:38.415113</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8827,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213064</t>
+          <t>2021-10-05 14:35:38.415115</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8857,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213067</t>
+          <t>2021-10-05 14:35:38.415117</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8887,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213069</t>
+          <t>2021-10-05 14:35:38.415120</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8917,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213072</t>
+          <t>2021-10-05 14:35:38.415122</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8947,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213075</t>
+          <t>2021-10-05 14:35:38.415125</t>
         </is>
       </c>
     </row>
@@ -8976,7 +8977,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213078</t>
+          <t>2021-10-05 14:35:38.415127</t>
         </is>
       </c>
     </row>
@@ -9006,7 +9007,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213081</t>
+          <t>2021-10-05 14:35:38.415129</t>
         </is>
       </c>
     </row>
@@ -9036,7 +9037,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213084</t>
+          <t>2021-10-05 14:35:38.415132</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9067,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213086</t>
+          <t>2021-10-05 14:35:38.415134</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9097,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213089</t>
+          <t>2021-10-05 14:35:38.415137</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9127,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213092</t>
+          <t>2021-10-05 14:35:38.415139</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9157,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213094</t>
+          <t>2021-10-05 14:35:38.415141</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9187,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213097</t>
+          <t>2021-10-05 14:35:38.415144</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9217,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213100</t>
+          <t>2021-10-05 14:35:38.415146</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9247,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213102</t>
+          <t>2021-10-05 14:35:38.415149</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9277,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213105</t>
+          <t>2021-10-05 14:35:38.415151</t>
         </is>
       </c>
     </row>
@@ -9306,7 +9307,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213108</t>
+          <t>2021-10-05 14:35:38.415153</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9337,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213110</t>
+          <t>2021-10-05 14:35:38.415156</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9367,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213113</t>
+          <t>2021-10-05 14:35:38.415158</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9397,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213116</t>
+          <t>2021-10-05 14:35:38.415161</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9427,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213118</t>
+          <t>2021-10-05 14:35:38.415164</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9457,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213121</t>
+          <t>2021-10-05 14:35:38.415166</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9487,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213123</t>
+          <t>2021-10-05 14:35:38.415168</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9517,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213126</t>
+          <t>2021-10-05 14:35:38.415171</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9547,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213129</t>
+          <t>2021-10-05 14:35:38.415173</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9577,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213132</t>
+          <t>2021-10-05 14:35:38.415176</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9607,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213134</t>
+          <t>2021-10-05 14:35:38.415178</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9637,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213137</t>
+          <t>2021-10-05 14:35:38.415181</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9667,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213139</t>
+          <t>2021-10-05 14:35:38.415183</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9697,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213142</t>
+          <t>2021-10-05 14:35:38.415185</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9727,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213146</t>
+          <t>2021-10-05 14:35:38.415189</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9757,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213150</t>
+          <t>2021-10-05 14:35:38.415192</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9787,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213153</t>
+          <t>2021-10-05 14:35:38.415195</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9817,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213155</t>
+          <t>2021-10-05 14:35:38.415197</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9847,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213158</t>
+          <t>2021-10-05 14:35:38.415200</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9877,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213161</t>
+          <t>2021-10-05 14:35:38.415202</t>
         </is>
       </c>
     </row>
@@ -9906,7 +9907,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213164</t>
+          <t>2021-10-05 14:35:38.415205</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9937,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213166</t>
+          <t>2021-10-05 14:35:38.415207</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9967,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213169</t>
+          <t>2021-10-05 14:35:38.415210</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9997,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213172</t>
+          <t>2021-10-05 14:35:38.415212</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10027,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213174</t>
+          <t>2021-10-05 14:35:38.415214</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10057,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213177</t>
+          <t>2021-10-05 14:35:38.415217</t>
         </is>
       </c>
     </row>
@@ -10086,7 +10087,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213180</t>
+          <t>2021-10-05 14:35:38.415219</t>
         </is>
       </c>
     </row>
@@ -10116,7 +10117,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213182</t>
+          <t>2021-10-05 14:35:38.415222</t>
         </is>
       </c>
     </row>
@@ -10146,7 +10147,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213185</t>
+          <t>2021-10-05 14:35:38.415224</t>
         </is>
       </c>
     </row>
@@ -10176,7 +10177,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213187</t>
+          <t>2021-10-05 14:35:38.415226</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10207,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213190</t>
+          <t>2021-10-05 14:35:38.415229</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213192</t>
+          <t>2021-10-05 14:35:38.415231</t>
         </is>
       </c>
     </row>
@@ -10266,7 +10267,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213195</t>
+          <t>2021-10-05 14:35:38.415234</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10297,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213198</t>
+          <t>2021-10-05 14:35:38.415236</t>
         </is>
       </c>
     </row>
@@ -10326,7 +10327,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213200</t>
+          <t>2021-10-05 14:35:38.415238</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10357,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213203</t>
+          <t>2021-10-05 14:35:38.415241</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10387,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213206</t>
+          <t>2021-10-05 14:35:38.415243</t>
         </is>
       </c>
     </row>
@@ -10416,7 +10417,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213209</t>
+          <t>2021-10-05 14:35:38.415246</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10447,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213212</t>
+          <t>2021-10-05 14:35:38.415248</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10477,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213215</t>
+          <t>2021-10-05 14:35:38.415250</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10507,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213217</t>
+          <t>2021-10-05 14:35:38.415253</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10537,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213220</t>
+          <t>2021-10-05 14:35:38.415255</t>
         </is>
       </c>
     </row>
@@ -10566,7 +10567,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213223</t>
+          <t>2021-10-05 14:35:38.415258</t>
         </is>
       </c>
     </row>
@@ -10596,7 +10597,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213225</t>
+          <t>2021-10-05 14:35:38.415260</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10627,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213228</t>
+          <t>2021-10-05 14:35:38.415262</t>
         </is>
       </c>
     </row>
@@ -10656,7 +10657,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213231</t>
+          <t>2021-10-05 14:35:38.415265</t>
         </is>
       </c>
     </row>
@@ -10686,7 +10687,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213233</t>
+          <t>2021-10-05 14:35:38.415267</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10717,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213236</t>
+          <t>2021-10-05 14:35:38.415270</t>
         </is>
       </c>
     </row>
@@ -10746,7 +10747,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213239</t>
+          <t>2021-10-05 14:35:38.415272</t>
         </is>
       </c>
     </row>
@@ -10776,7 +10777,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213242</t>
+          <t>2021-10-05 14:35:38.415274</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10807,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213244</t>
+          <t>2021-10-05 14:35:38.415277</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10837,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213247</t>
+          <t>2021-10-05 14:35:38.415279</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10867,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213250</t>
+          <t>2021-10-05 14:35:38.415282</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10897,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213253</t>
+          <t>2021-10-05 14:35:38.415284</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10927,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213256</t>
+          <t>2021-10-05 14:35:38.415287</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10957,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213259</t>
+          <t>2021-10-05 14:35:38.415289</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10987,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213261</t>
+          <t>2021-10-05 14:35:38.415291</t>
         </is>
       </c>
     </row>
@@ -11016,7 +11017,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213264</t>
+          <t>2021-10-05 14:35:38.415294</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11047,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213268</t>
+          <t>2021-10-05 14:35:38.415298</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11077,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213271</t>
+          <t>2021-10-05 14:35:38.415301</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11107,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213274</t>
+          <t>2021-10-05 14:35:38.415304</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11137,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213276</t>
+          <t>2021-10-05 14:35:38.415306</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11167,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213279</t>
+          <t>2021-10-05 14:35:38.415309</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11197,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213282</t>
+          <t>2021-10-05 14:35:38.415311</t>
         </is>
       </c>
     </row>
@@ -11226,7 +11227,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213284</t>
+          <t>2021-10-05 14:35:38.415314</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11257,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213287</t>
+          <t>2021-10-05 14:35:38.415316</t>
         </is>
       </c>
     </row>
@@ -11286,7 +11287,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213290</t>
+          <t>2021-10-05 14:35:38.415318</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11317,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213292</t>
+          <t>2021-10-05 14:35:38.415321</t>
         </is>
       </c>
     </row>
@@ -11346,7 +11347,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213295</t>
+          <t>2021-10-05 14:35:38.415323</t>
         </is>
       </c>
     </row>
@@ -11376,7 +11377,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213298</t>
+          <t>2021-10-05 14:35:38.415326</t>
         </is>
       </c>
     </row>
@@ -11406,7 +11407,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213300</t>
+          <t>2021-10-05 14:35:38.415328</t>
         </is>
       </c>
     </row>
@@ -11436,7 +11437,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213303</t>
+          <t>2021-10-05 14:35:38.415330</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11467,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213306</t>
+          <t>2021-10-05 14:35:38.415333</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11497,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213309</t>
+          <t>2021-10-05 14:35:38.415336</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11527,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213311</t>
+          <t>2021-10-05 14:35:38.415338</t>
         </is>
       </c>
     </row>
@@ -11556,7 +11557,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213314</t>
+          <t>2021-10-05 14:35:38.415341</t>
         </is>
       </c>
     </row>
@@ -11586,7 +11587,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213317</t>
+          <t>2021-10-05 14:35:38.415343</t>
         </is>
       </c>
     </row>
@@ -11616,7 +11617,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213319</t>
+          <t>2021-10-05 14:35:38.415345</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11647,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213322</t>
+          <t>2021-10-05 14:35:38.415348</t>
         </is>
       </c>
     </row>
@@ -11676,7 +11677,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213325</t>
+          <t>2021-10-05 14:35:38.415350</t>
         </is>
       </c>
     </row>
@@ -11706,7 +11707,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213327</t>
+          <t>2021-10-05 14:35:38.415353</t>
         </is>
       </c>
     </row>
@@ -11736,7 +11737,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213330</t>
+          <t>2021-10-05 14:35:38.415355</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11767,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213333</t>
+          <t>2021-10-05 14:35:38.415357</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11797,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213335</t>
+          <t>2021-10-05 14:35:38.415360</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11827,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213338</t>
+          <t>2021-10-05 14:35:38.415362</t>
         </is>
       </c>
     </row>
@@ -11856,7 +11857,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213341</t>
+          <t>2021-10-05 14:35:38.415365</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11887,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213343</t>
+          <t>2021-10-05 14:35:38.415367</t>
         </is>
       </c>
     </row>
@@ -11916,7 +11917,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213346</t>
+          <t>2021-10-05 14:35:38.415370</t>
         </is>
       </c>
     </row>
@@ -11946,7 +11947,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213349</t>
+          <t>2021-10-05 14:35:38.415372</t>
         </is>
       </c>
     </row>
@@ -11976,7 +11977,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213352</t>
+          <t>2021-10-05 14:35:38.415374</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12007,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213354</t>
+          <t>2021-10-05 14:35:38.415377</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12037,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213357</t>
+          <t>2021-10-05 14:35:38.415379</t>
         </is>
       </c>
     </row>
@@ -12066,7 +12067,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213360</t>
+          <t>2021-10-05 14:35:38.415382</t>
         </is>
       </c>
     </row>
@@ -12096,7 +12097,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213363</t>
+          <t>2021-10-05 14:35:38.415384</t>
         </is>
       </c>
     </row>
@@ -12126,7 +12127,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213365</t>
+          <t>2021-10-05 14:35:38.415387</t>
         </is>
       </c>
     </row>
@@ -12156,7 +12157,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213368</t>
+          <t>2021-10-05 14:35:38.415389</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12187,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213371</t>
+          <t>2021-10-05 14:35:38.415391</t>
         </is>
       </c>
     </row>
@@ -12216,7 +12217,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213373</t>
+          <t>2021-10-05 14:35:38.415394</t>
         </is>
       </c>
     </row>
@@ -12246,7 +12247,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213376</t>
+          <t>2021-10-05 14:35:38.415396</t>
         </is>
       </c>
     </row>
@@ -12276,7 +12277,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213379</t>
+          <t>2021-10-05 14:35:38.415399</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12307,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213381</t>
+          <t>2021-10-05 14:35:38.415411</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12337,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213384</t>
+          <t>2021-10-05 14:35:38.415414</t>
         </is>
       </c>
     </row>
@@ -12366,7 +12367,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213387</t>
+          <t>2021-10-05 14:35:38.415416</t>
         </is>
       </c>
     </row>
@@ -12396,7 +12397,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213389</t>
+          <t>2021-10-05 14:35:38.415419</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12427,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213392</t>
+          <t>2021-10-05 14:35:38.415421</t>
         </is>
       </c>
     </row>
@@ -12456,7 +12457,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213395</t>
+          <t>2021-10-05 14:35:38.415424</t>
         </is>
       </c>
     </row>
@@ -12486,7 +12487,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213399</t>
+          <t>2021-10-05 14:35:38.415428</t>
         </is>
       </c>
     </row>
@@ -12516,7 +12517,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213402</t>
+          <t>2021-10-05 14:35:38.415431</t>
         </is>
       </c>
     </row>
@@ -12546,7 +12547,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213405</t>
+          <t>2021-10-05 14:35:38.415433</t>
         </is>
       </c>
     </row>
@@ -12576,7 +12577,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213408</t>
+          <t>2021-10-05 14:35:38.415436</t>
         </is>
       </c>
     </row>
@@ -12606,7 +12607,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213411</t>
+          <t>2021-10-05 14:35:38.415438</t>
         </is>
       </c>
     </row>
@@ -12636,7 +12637,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213413</t>
+          <t>2021-10-05 14:35:38.415440</t>
         </is>
       </c>
     </row>
@@ -12666,7 +12667,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213416</t>
+          <t>2021-10-05 14:35:38.415443</t>
         </is>
       </c>
     </row>
@@ -12696,7 +12697,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213419</t>
+          <t>2021-10-05 14:35:38.415445</t>
         </is>
       </c>
     </row>
@@ -12726,7 +12727,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213421</t>
+          <t>2021-10-05 14:35:38.415448</t>
         </is>
       </c>
     </row>
@@ -12756,7 +12757,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213424</t>
+          <t>2021-10-05 14:35:38.415450</t>
         </is>
       </c>
     </row>
@@ -12786,7 +12787,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213427</t>
+          <t>2021-10-05 14:35:38.415453</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12817,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213429</t>
+          <t>2021-10-05 14:35:38.415455</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12847,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213432</t>
+          <t>2021-10-05 14:35:38.415458</t>
         </is>
       </c>
     </row>
@@ -12876,7 +12877,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213435</t>
+          <t>2021-10-05 14:35:38.415460</t>
         </is>
       </c>
     </row>
@@ -12906,7 +12907,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213437</t>
+          <t>2021-10-05 14:35:38.415462</t>
         </is>
       </c>
     </row>
@@ -12936,7 +12937,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213440</t>
+          <t>2021-10-05 14:35:38.415465</t>
         </is>
       </c>
     </row>
@@ -12966,7 +12967,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213443</t>
+          <t>2021-10-05 14:35:38.415467</t>
         </is>
       </c>
     </row>
@@ -12996,7 +12997,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213446</t>
+          <t>2021-10-05 14:35:38.415470</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13027,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213448</t>
+          <t>2021-10-05 14:35:38.415472</t>
         </is>
       </c>
     </row>
@@ -13056,7 +13057,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213451</t>
+          <t>2021-10-05 14:35:38.415475</t>
         </is>
       </c>
     </row>
@@ -13086,7 +13087,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213454</t>
+          <t>2021-10-05 14:35:38.415477</t>
         </is>
       </c>
     </row>
@@ -13116,7 +13117,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213457</t>
+          <t>2021-10-05 14:35:38.415479</t>
         </is>
       </c>
     </row>
@@ -13146,7 +13147,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213459</t>
+          <t>2021-10-05 14:35:38.415482</t>
         </is>
       </c>
     </row>
@@ -13176,7 +13177,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213462</t>
+          <t>2021-10-05 14:35:38.415484</t>
         </is>
       </c>
     </row>
@@ -13206,7 +13207,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213464</t>
+          <t>2021-10-05 14:35:38.415487</t>
         </is>
       </c>
     </row>
@@ -13236,7 +13237,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213467</t>
+          <t>2021-10-05 14:35:38.415489</t>
         </is>
       </c>
     </row>
@@ -13266,7 +13267,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213470</t>
+          <t>2021-10-05 14:35:38.415492</t>
         </is>
       </c>
     </row>
@@ -13296,7 +13297,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213472</t>
+          <t>2021-10-05 14:35:38.415495</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13327,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213475</t>
+          <t>2021-10-05 14:35:38.415497</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13357,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213478</t>
+          <t>2021-10-05 14:35:38.415500</t>
         </is>
       </c>
     </row>
@@ -13386,7 +13387,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213480</t>
+          <t>2021-10-05 14:35:38.415502</t>
         </is>
       </c>
     </row>
@@ -13416,7 +13417,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213483</t>
+          <t>2021-10-05 14:35:38.415504</t>
         </is>
       </c>
     </row>
@@ -13446,7 +13447,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213486</t>
+          <t>2021-10-05 14:35:38.415507</t>
         </is>
       </c>
     </row>
@@ -13476,7 +13477,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213488</t>
+          <t>2021-10-05 14:35:38.415509</t>
         </is>
       </c>
     </row>
@@ -13506,7 +13507,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213491</t>
+          <t>2021-10-05 14:35:38.415512</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13537,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213494</t>
+          <t>2021-10-05 14:35:38.415514</t>
         </is>
       </c>
     </row>
@@ -13566,7 +13567,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213496</t>
+          <t>2021-10-05 14:35:38.415517</t>
         </is>
       </c>
     </row>
@@ -13596,7 +13597,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213499</t>
+          <t>2021-10-05 14:35:38.415519</t>
         </is>
       </c>
     </row>
@@ -13626,7 +13627,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213501</t>
+          <t>2021-10-05 14:35:38.415522</t>
         </is>
       </c>
     </row>
@@ -13656,7 +13657,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213504</t>
+          <t>2021-10-05 14:35:38.415524</t>
         </is>
       </c>
     </row>
@@ -13686,7 +13687,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213507</t>
+          <t>2021-10-05 14:35:38.415526</t>
         </is>
       </c>
     </row>
@@ -13716,7 +13717,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213510</t>
+          <t>2021-10-05 14:35:38.415529</t>
         </is>
       </c>
     </row>
@@ -13746,7 +13747,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213512</t>
+          <t>2021-10-05 14:35:38.415531</t>
         </is>
       </c>
     </row>
@@ -13776,7 +13777,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213515</t>
+          <t>2021-10-05 14:35:38.415534</t>
         </is>
       </c>
     </row>
@@ -13806,7 +13807,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213517</t>
+          <t>2021-10-05 14:35:38.415536</t>
         </is>
       </c>
     </row>
@@ -13836,7 +13837,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213520</t>
+          <t>2021-10-05 14:35:38.415539</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13867,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213523</t>
+          <t>2021-10-05 14:35:38.415541</t>
         </is>
       </c>
     </row>
@@ -13896,7 +13897,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213525</t>
+          <t>2021-10-05 14:35:38.415544</t>
         </is>
       </c>
     </row>
@@ -13926,7 +13927,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213528</t>
+          <t>2021-10-05 14:35:38.415546</t>
         </is>
       </c>
     </row>
@@ -13956,7 +13957,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213531</t>
+          <t>2021-10-05 14:35:38.415549</t>
         </is>
       </c>
     </row>
@@ -13986,7 +13987,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213533</t>
+          <t>2021-10-05 14:35:38.415551</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14017,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213536</t>
+          <t>2021-10-05 14:35:38.415554</t>
         </is>
       </c>
     </row>
@@ -14046,7 +14047,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213539</t>
+          <t>2021-10-05 14:35:38.415556</t>
         </is>
       </c>
     </row>
@@ -14076,7 +14077,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213542</t>
+          <t>2021-10-05 14:35:38.415559</t>
         </is>
       </c>
     </row>
@@ -14106,7 +14107,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213545</t>
+          <t>2021-10-05 14:35:38.415561</t>
         </is>
       </c>
     </row>
@@ -14136,7 +14137,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213548</t>
+          <t>2021-10-05 14:35:38.415564</t>
         </is>
       </c>
     </row>
@@ -14166,7 +14167,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213552</t>
+          <t>2021-10-05 14:35:38.415568</t>
         </is>
       </c>
     </row>
@@ -14196,7 +14197,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213555</t>
+          <t>2021-10-05 14:35:38.415571</t>
         </is>
       </c>
     </row>
@@ -14226,7 +14227,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213558</t>
+          <t>2021-10-05 14:35:38.415574</t>
         </is>
       </c>
     </row>
@@ -14256,7 +14257,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213561</t>
+          <t>2021-10-05 14:35:38.415577</t>
         </is>
       </c>
     </row>
@@ -14286,7 +14287,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213563</t>
+          <t>2021-10-05 14:35:38.415579</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14317,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213566</t>
+          <t>2021-10-05 14:35:38.415582</t>
         </is>
       </c>
     </row>
@@ -14346,7 +14347,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213569</t>
+          <t>2021-10-05 14:35:38.415584</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14377,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213572</t>
+          <t>2021-10-05 14:35:38.415587</t>
         </is>
       </c>
     </row>
@@ -14406,7 +14407,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213574</t>
+          <t>2021-10-05 14:35:38.415590</t>
         </is>
       </c>
     </row>
@@ -14436,7 +14437,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213577</t>
+          <t>2021-10-05 14:35:38.415592</t>
         </is>
       </c>
     </row>
@@ -14466,7 +14467,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213580</t>
+          <t>2021-10-05 14:35:38.415595</t>
         </is>
       </c>
     </row>
@@ -14496,7 +14497,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213583</t>
+          <t>2021-10-05 14:35:38.415597</t>
         </is>
       </c>
     </row>
@@ -14526,7 +14527,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213586</t>
+          <t>2021-10-05 14:35:38.415600</t>
         </is>
       </c>
     </row>
@@ -14556,7 +14557,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213589</t>
+          <t>2021-10-05 14:35:38.415603</t>
         </is>
       </c>
     </row>
@@ -14586,7 +14587,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213591</t>
+          <t>2021-10-05 14:35:38.415605</t>
         </is>
       </c>
     </row>
@@ -14616,7 +14617,91 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:38.213601</t>
+          <t>2021-10-05 14:35:38.415608</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Retinal Disorders Superpanel</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3124</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-09-18T08:16:34.375392Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:35:38.411231</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/3124/?format=json</t>
         </is>
       </c>
     </row>
